--- a/APM files/122284471/122284471 IMPORT 1 BMC Cloud Property.xlsx
+++ b/APM files/122284471/122284471 IMPORT 1 BMC Cloud Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\workspace\APM files\122284471\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1F481-5062-4FBC-B5DC-04CC88A6BE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096FD3D4-5150-48E7-B346-BE00CCDDC888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="5445" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14385" yWindow="3405" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="173">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -481,9 +481,6 @@
     <t>5251737</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5259322</t>
   </si>
   <si>
@@ -536,6 +533,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>5424985</t>
+  </si>
+  <si>
+    <t>5424986</t>
   </si>
 </sst>
 </file>
@@ -556,18 +559,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -597,12 +594,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A64" activeCellId="1" sqref="A62 A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,10 +980,10 @@
         <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I2">
         <v>0.18</v>
@@ -1022,10 +1018,10 @@
         <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I3">
         <v>0.18</v>
@@ -1060,10 +1056,10 @@
         <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I4">
         <v>0.18</v>
@@ -1098,10 +1094,10 @@
         <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I5">
         <v>0.18</v>
@@ -1136,10 +1132,10 @@
         <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I6">
         <v>0.18</v>
@@ -1174,10 +1170,10 @@
         <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7">
         <v>0.18</v>
@@ -1212,10 +1208,10 @@
         <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8">
         <v>0.18</v>
@@ -1250,10 +1246,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I9">
         <v>0.18</v>
@@ -1288,10 +1284,10 @@
         <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I10">
         <v>0.18</v>
@@ -1326,10 +1322,10 @@
         <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I11">
         <v>0.18</v>
@@ -1364,10 +1360,10 @@
         <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I12">
         <v>0.18</v>
@@ -1402,10 +1398,10 @@
         <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I13">
         <v>0.18</v>
@@ -1440,10 +1436,10 @@
         <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I14">
         <v>0.18</v>
@@ -1478,10 +1474,10 @@
         <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I15">
         <v>0.18</v>
@@ -1516,10 +1512,10 @@
         <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I16">
         <v>0.18</v>
@@ -1554,10 +1550,10 @@
         <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I17">
         <v>0.18</v>
@@ -1592,10 +1588,10 @@
         <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I18">
         <v>0.18</v>
@@ -1630,10 +1626,10 @@
         <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I19">
         <v>0.18</v>
@@ -1668,10 +1664,10 @@
         <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I20">
         <v>0.18</v>
@@ -1706,10 +1702,10 @@
         <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I21">
         <v>0.18</v>
@@ -1744,10 +1740,10 @@
         <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I22">
         <v>0.18</v>
@@ -1782,10 +1778,10 @@
         <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I23">
         <v>0.18</v>
@@ -1820,10 +1816,10 @@
         <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I24">
         <v>0.18</v>
@@ -1858,10 +1854,10 @@
         <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I25">
         <v>0.18</v>
@@ -1896,10 +1892,10 @@
         <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I26">
         <v>0.18</v>
@@ -1934,10 +1930,10 @@
         <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I27">
         <v>0.18</v>
@@ -1972,10 +1968,10 @@
         <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I28">
         <v>0.18</v>
@@ -2010,10 +2006,10 @@
         <v>120</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I29">
         <v>0.18</v>
@@ -2048,10 +2044,10 @@
         <v>121</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I30">
         <v>0.18</v>
@@ -2086,10 +2082,10 @@
         <v>122</v>
       </c>
       <c r="G31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I31">
         <v>0.18</v>
@@ -2124,10 +2120,10 @@
         <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I32">
         <v>0.18</v>
@@ -2162,10 +2158,10 @@
         <v>124</v>
       </c>
       <c r="G33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I33">
         <v>0.18</v>
@@ -2200,10 +2196,10 @@
         <v>125</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I34">
         <v>0.18</v>
@@ -2238,10 +2234,10 @@
         <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I35">
         <v>0.18</v>
@@ -2276,10 +2272,10 @@
         <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I36">
         <v>0.18</v>
@@ -2314,10 +2310,10 @@
         <v>128</v>
       </c>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I37">
         <v>0.18</v>
@@ -2352,10 +2348,10 @@
         <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I38">
         <v>0.18</v>
@@ -2390,10 +2386,10 @@
         <v>130</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I39">
         <v>0.18</v>
@@ -2428,10 +2424,10 @@
         <v>131</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I40">
         <v>0.18</v>
@@ -2466,10 +2462,10 @@
         <v>132</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I41">
         <v>0.18</v>
@@ -2504,10 +2500,10 @@
         <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I42">
         <v>0.18</v>
@@ -2542,10 +2538,10 @@
         <v>134</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I43">
         <v>0.18</v>
@@ -2580,10 +2576,10 @@
         <v>135</v>
       </c>
       <c r="G44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I44">
         <v>0.18</v>
@@ -2618,10 +2614,10 @@
         <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I45">
         <v>0.18</v>
@@ -2656,10 +2652,10 @@
         <v>137</v>
       </c>
       <c r="G46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I46">
         <v>0.18</v>
@@ -2694,10 +2690,10 @@
         <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I47">
         <v>0.18</v>
@@ -2732,10 +2728,10 @@
         <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I48">
         <v>0.18</v>
@@ -2770,10 +2766,10 @@
         <v>140</v>
       </c>
       <c r="G49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I49">
         <v>0.18</v>
@@ -2808,10 +2804,10 @@
         <v>141</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I50">
         <v>0.18</v>
@@ -2846,10 +2842,10 @@
         <v>142</v>
       </c>
       <c r="G51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I51">
         <v>0.18</v>
@@ -2884,10 +2880,10 @@
         <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I52">
         <v>0.18</v>
@@ -2922,10 +2918,10 @@
         <v>144</v>
       </c>
       <c r="G53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I53">
         <v>0.18</v>
@@ -2960,10 +2956,10 @@
         <v>145</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I54">
         <v>0.18</v>
@@ -2998,10 +2994,10 @@
         <v>146</v>
       </c>
       <c r="G55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I55">
         <v>0.18</v>
@@ -3036,10 +3032,10 @@
         <v>147</v>
       </c>
       <c r="G56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I56">
         <v>0.18</v>
@@ -3074,10 +3070,10 @@
         <v>148</v>
       </c>
       <c r="G57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I57">
         <v>0.18</v>
@@ -3112,10 +3108,10 @@
         <v>149</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I58">
         <v>0.18</v>
@@ -3150,10 +3146,10 @@
         <v>150</v>
       </c>
       <c r="G59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I59">
         <v>0.18</v>
@@ -3188,10 +3184,10 @@
         <v>151</v>
       </c>
       <c r="G60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I60">
         <v>0.18</v>
@@ -3226,10 +3222,10 @@
         <v>152</v>
       </c>
       <c r="G61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I61">
         <v>0.18</v>
@@ -3260,14 +3256,14 @@
       <c r="E62" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>153</v>
+      <c r="F62" t="s">
+        <v>171</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I62">
         <v>0.18</v>
@@ -3299,13 +3295,13 @@
         <v>92</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I63">
         <v>0.18</v>
@@ -3336,14 +3332,14 @@
       <c r="E64" t="s">
         <v>92</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>153</v>
+      <c r="F64" t="s">
+        <v>172</v>
       </c>
       <c r="G64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I64">
         <v>0.18</v>
@@ -3375,13 +3371,13 @@
         <v>92</v>
       </c>
       <c r="F65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I65">
         <v>0.18</v>
@@ -3413,13 +3409,13 @@
         <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I66">
         <v>0.18</v>
@@ -3451,13 +3447,13 @@
         <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I67">
         <v>0.18</v>
@@ -3489,13 +3485,13 @@
         <v>92</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I68">
         <v>0.18</v>
@@ -3527,13 +3523,13 @@
         <v>92</v>
       </c>
       <c r="F69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I69">
         <v>0.18</v>
@@ -3565,13 +3561,13 @@
         <v>92</v>
       </c>
       <c r="F70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I70">
         <v>0.18</v>
@@ -3603,13 +3599,13 @@
         <v>92</v>
       </c>
       <c r="F71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I71">
         <v>0.18</v>
@@ -3641,13 +3637,13 @@
         <v>92</v>
       </c>
       <c r="F72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I72">
         <v>0.18</v>
@@ -3679,13 +3675,13 @@
         <v>92</v>
       </c>
       <c r="F73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I73">
         <v>0.18</v>
@@ -3717,13 +3713,13 @@
         <v>92</v>
       </c>
       <c r="F74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I74">
         <v>0.18</v>
@@ -3755,13 +3751,13 @@
         <v>92</v>
       </c>
       <c r="F75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I75">
         <v>0.18</v>
@@ -3793,13 +3789,13 @@
         <v>92</v>
       </c>
       <c r="F76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I76">
         <v>0.18</v>
@@ -3831,13 +3827,13 @@
         <v>92</v>
       </c>
       <c r="F77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I77">
         <v>0.18</v>
@@ -3869,13 +3865,13 @@
         <v>92</v>
       </c>
       <c r="F78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I78">
         <v>0.18</v>
@@ -3907,13 +3903,13 @@
         <v>92</v>
       </c>
       <c r="F79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I79">
         <v>0.18</v>
